--- a/Тест/OKO_Test_Timeline.xlsx
+++ b/Тест/OKO_Test_Timeline.xlsx
@@ -12,13 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Timeline" sheetId="2" r:id="rId1"/>
+    <sheet name="Timeline" sheetId="6" r:id="rId1"/>
     <sheet name="Charts" sheetId="5" r:id="rId2"/>
     <sheet name="Beacons" sheetId="4" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -110,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="132">
   <si>
     <t>T1</t>
   </si>
@@ -483,6 +480,30 @@
   <si>
     <t>Пример:</t>
   </si>
+  <si>
+    <t>Тренажер. Основное упражнение</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Уточнить</t>
+  </si>
+  <si>
+    <t>OKO. Основное упражнение</t>
+  </si>
+  <si>
+    <t>GZP155 проходит эш. 310</t>
+  </si>
+  <si>
+    <t>Расст. 10 км</t>
+  </si>
+  <si>
+    <t>DNV4863 проходит эш. 300</t>
+  </si>
+  <si>
+    <t>Момент конфликта (наибольшего сближения)</t>
+  </si>
 </sst>
 </file>
 
@@ -491,7 +512,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +544,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -597,48 +627,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -660,18 +666,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -729,7 +760,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -860,7 +890,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -962,9 +991,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-B99E-47FE-8421-C3530D505C3D}"/>
                 </c:ext>
@@ -1306,7 +1333,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1442,9 +1468,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-25CA-45D2-96DA-DC2E80316B15}"/>
                 </c:ext>
@@ -1625,9 +1649,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-25CA-45D2-96DA-DC2E80316B15}"/>
                 </c:ext>
@@ -1932,7 +1954,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2022,9 +2043,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-C346-4010-9F05-A467015AD497}"/>
                 </c:ext>
@@ -2228,9 +2247,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-C346-4010-9F05-A467015AD497}"/>
                 </c:ext>
@@ -2577,7 +2594,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2717,7 +2733,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2845,9 +2860,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-333B-4BCA-AA5A-C6B976BFC777}"/>
                 </c:ext>
@@ -3155,7 +3168,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3440,9 +3452,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-FD2A-4455-8A11-E8F7D22B39CC}"/>
                 </c:ext>
@@ -3770,7 +3780,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3860,9 +3869,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-A2B0-464F-886E-002EA56C09AC}"/>
                 </c:ext>
@@ -4024,9 +4031,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-A2B0-464F-886E-002EA56C09AC}"/>
                 </c:ext>
@@ -10467,952 +10472,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Beacons"/>
-      <sheetName val="Beacons 0"/>
-      <sheetName val="Params"/>
-      <sheetName val="Planes"/>
-      <sheetName val="Timeline"/>
-      <sheetName val="Charts"/>
-      <sheetName val="FIN123"/>
-      <sheetName val="AFR01"/>
-      <sheetName val="GZP155"/>
-      <sheetName val="SBI86"/>
-      <sheetName val="KLM67"/>
-      <sheetName val="THA05"/>
-      <sheetName val="ANA58"/>
-      <sheetName val="AFL2406"/>
-      <sheetName val="DNV4863"/>
-      <sheetName val="SDM589"/>
-      <sheetName val="AFL2433"/>
-      <sheetName val="AFL2418"/>
-      <sheetName val="SDM27"/>
-      <sheetName val="AFL2427"/>
-      <sheetName val="AFL2415"/>
-      <sheetName val="AFL2429"/>
-      <sheetName val="SBI2427"/>
-      <sheetName val="AFL2455"/>
-      <sheetName val="UTA427"/>
-      <sheetName val="AFL2422"/>
-      <sheetName val="AFL2444"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>TU</v>
-          </cell>
-          <cell r="N6">
-            <v>0.2718506</v>
-          </cell>
-          <cell r="O6">
-            <v>-0.16986080000000001</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>OGUTA</v>
-          </cell>
-          <cell r="N7">
-            <v>-123019.3</v>
-          </cell>
-          <cell r="O7">
-            <v>-72673.259999999995</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>KOLED</v>
-          </cell>
-          <cell r="N8">
-            <v>53096.34</v>
-          </cell>
-          <cell r="O8">
-            <v>-44851.519999999997</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>FK</v>
-          </cell>
-          <cell r="N9">
-            <v>130518.1</v>
-          </cell>
-          <cell r="O9">
-            <v>-32685.439999999999</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>MOSON</v>
-          </cell>
-          <cell r="N10">
-            <v>-118228.8</v>
-          </cell>
-          <cell r="O10">
-            <v>-129591.7</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>KOMOG</v>
-          </cell>
-          <cell r="N11">
-            <v>7603.2349999999997</v>
-          </cell>
-          <cell r="O11">
-            <v>-72965.16</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>RUBAG</v>
-          </cell>
-          <cell r="N12">
-            <v>64469.55</v>
-          </cell>
-          <cell r="O12">
-            <v>-54316.03</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>SATAL</v>
-          </cell>
-          <cell r="N13">
-            <v>91843.46</v>
-          </cell>
-          <cell r="O13">
-            <v>-77627.820000000007</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>IBAMO</v>
-          </cell>
-          <cell r="N14">
-            <v>11438.8</v>
-          </cell>
-          <cell r="O14">
-            <v>-109404.5</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>RATIN</v>
-          </cell>
-          <cell r="N15">
-            <v>-129477.1</v>
-          </cell>
-          <cell r="O15">
-            <v>-62992.480000000003</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>MITMU</v>
-          </cell>
-          <cell r="N16">
-            <v>29787.32</v>
-          </cell>
-          <cell r="O16">
-            <v>17847.72</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>GAPSA</v>
-          </cell>
-          <cell r="N17">
-            <v>77905.02</v>
-          </cell>
-          <cell r="O17">
-            <v>46558.81</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>AJ</v>
-          </cell>
-          <cell r="N18">
-            <v>124981</v>
-          </cell>
-          <cell r="O18">
-            <v>74857.69</v>
-          </cell>
-          <cell r="P18">
-            <v>145684.33036238351</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>SUPEK</v>
-          </cell>
-          <cell r="N19">
-            <v>-124061.1</v>
-          </cell>
-          <cell r="O19">
-            <v>-29584.49</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>BG</v>
-          </cell>
-          <cell r="N20">
-            <v>120380.9</v>
-          </cell>
-          <cell r="O20">
-            <v>-1855.4929999999999</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>BOMGI</v>
-          </cell>
-          <cell r="N21">
-            <v>-120745.3</v>
-          </cell>
-          <cell r="O21">
-            <v>25834.03</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>AMDOR</v>
-          </cell>
-          <cell r="N22">
-            <v>-120954</v>
-          </cell>
-          <cell r="O22">
-            <v>50355.11</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>OLMET</v>
-          </cell>
-          <cell r="N23">
-            <v>-51887.67</v>
-          </cell>
-          <cell r="O23">
-            <v>35433.14</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>ROMEL</v>
-          </cell>
-          <cell r="N24">
-            <v>-116058.5</v>
-          </cell>
-          <cell r="O24">
-            <v>78981.820000000007</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>OLIDI</v>
-          </cell>
-          <cell r="N25">
-            <v>122967.6</v>
-          </cell>
-          <cell r="O25">
-            <v>39481.050000000003</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>BELAG</v>
-          </cell>
-          <cell r="N26">
-            <v>147130</v>
-          </cell>
-          <cell r="O26">
-            <v>34833.769999999997</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>AMABI</v>
-          </cell>
-          <cell r="N27">
-            <v>-33675.51</v>
-          </cell>
-          <cell r="O27">
-            <v>163330.29999999999</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>OGUT-FK/IBAMO-TU</v>
-          </cell>
-          <cell r="N28">
-            <v>5606.5450000000001</v>
-          </cell>
-          <cell r="O28">
-            <v>-51212.86</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>OLMET-MITMU/ABAMI-TU</v>
-          </cell>
-          <cell r="N29">
-            <v>-4877.982</v>
-          </cell>
-          <cell r="O29">
-            <v>26549.65</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>ROMEL-GAPSA/ABAMI-TU</v>
-          </cell>
-          <cell r="N30">
-            <v>-12671.89</v>
-          </cell>
-          <cell r="O30">
-            <v>63357.02</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="J2" t="str">
-            <v>FIN123</v>
-          </cell>
-          <cell r="K2" t="str">
-            <v>AFR01</v>
-          </cell>
-          <cell r="S2" t="str">
-            <v>ANA58</v>
-          </cell>
-          <cell r="T2" t="str">
-            <v>AFL2406</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="L3">
-            <v>-116058.5</v>
-          </cell>
-          <cell r="M3">
-            <v>78981.820000000007</v>
-          </cell>
-          <cell r="N3">
-            <v>-129477.1</v>
-          </cell>
-          <cell r="O3">
-            <v>-62992.480000000003</v>
-          </cell>
-          <cell r="U3">
-            <v>124981</v>
-          </cell>
-          <cell r="V3">
-            <v>74857.69</v>
-          </cell>
-          <cell r="W3">
-            <v>120380.9</v>
-          </cell>
-          <cell r="X3">
-            <v>-1855.4929999999999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="L4">
-            <v>0.2718506</v>
-          </cell>
-          <cell r="M4">
-            <v>-0.16986080000000001</v>
-          </cell>
-          <cell r="N4">
-            <v>0.2718506</v>
-          </cell>
-          <cell r="O4">
-            <v>-0.16986080000000001</v>
-          </cell>
-          <cell r="U4">
-            <v>77905.02</v>
-          </cell>
-          <cell r="V4">
-            <v>46558.81</v>
-          </cell>
-          <cell r="W4">
-            <v>29787.32</v>
-          </cell>
-          <cell r="X4">
-            <v>17847.72</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>91843.46</v>
-          </cell>
-          <cell r="M5">
-            <v>-77627.820000000007</v>
-          </cell>
-          <cell r="N5">
-            <v>124981</v>
-          </cell>
-          <cell r="O5">
-            <v>74857.69</v>
-          </cell>
-          <cell r="U5">
-            <v>0.2718506</v>
-          </cell>
-          <cell r="V5">
-            <v>-0.16986080000000001</v>
-          </cell>
-          <cell r="W5">
-            <v>-120954</v>
-          </cell>
-          <cell r="X5">
-            <v>50355.11</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="U6">
-            <v>-124061.1</v>
-          </cell>
-          <cell r="V6">
-            <v>-29584.49</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="J23" t="str">
-            <v>GZP155</v>
-          </cell>
-          <cell r="K23" t="str">
-            <v>SBI86</v>
-          </cell>
-          <cell r="S23" t="str">
-            <v>DNV4863</v>
-          </cell>
-          <cell r="T23" t="str">
-            <v>SDM589</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="L24">
-            <v>147130</v>
-          </cell>
-          <cell r="M24">
-            <v>34833.769999999997</v>
-          </cell>
-          <cell r="N24">
-            <v>147130</v>
-          </cell>
-          <cell r="O24">
-            <v>34833.769999999997</v>
-          </cell>
-          <cell r="U24">
-            <v>11438.8</v>
-          </cell>
-          <cell r="V24">
-            <v>-109404.5</v>
-          </cell>
-          <cell r="W24">
-            <v>-33675.51</v>
-          </cell>
-          <cell r="X24">
-            <v>163330.29999999999</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="L25">
-            <v>77905.02</v>
-          </cell>
-          <cell r="M25">
-            <v>46558.81</v>
-          </cell>
-          <cell r="N25">
-            <v>-116058.5</v>
-          </cell>
-          <cell r="O25">
-            <v>78981.820000000007</v>
-          </cell>
-          <cell r="U25">
-            <v>0.2718506</v>
-          </cell>
-          <cell r="V25">
-            <v>-0.16986080000000001</v>
-          </cell>
-          <cell r="W25">
-            <v>0.2718506</v>
-          </cell>
-          <cell r="X25">
-            <v>-0.16986080000000001</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="L26">
-            <v>-116058.5</v>
-          </cell>
-          <cell r="M26">
-            <v>78981.820000000007</v>
-          </cell>
-          <cell r="U26">
-            <v>-33675.51</v>
-          </cell>
-          <cell r="V26">
-            <v>163330.29999999999</v>
-          </cell>
-          <cell r="W26">
-            <v>11438.8</v>
-          </cell>
-          <cell r="X26">
-            <v>-109404.5</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="J39" t="str">
-            <v>KLM67</v>
-          </cell>
-          <cell r="K39" t="str">
-            <v>THA05</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="L40">
-            <v>91843.46</v>
-          </cell>
-          <cell r="M40">
-            <v>-77627.820000000007</v>
-          </cell>
-          <cell r="N40">
-            <v>91843.46</v>
-          </cell>
-          <cell r="O40">
-            <v>-77627.820000000007</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="L41">
-            <v>53096.34</v>
-          </cell>
-          <cell r="M41">
-            <v>-44851.519999999997</v>
-          </cell>
-          <cell r="N41">
-            <v>53096.34</v>
-          </cell>
-          <cell r="O41">
-            <v>-44851.519999999997</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="L42">
-            <v>0.2718506</v>
-          </cell>
-          <cell r="M42">
-            <v>-0.16986080000000001</v>
-          </cell>
-          <cell r="N42">
-            <v>0.2718506</v>
-          </cell>
-          <cell r="O42">
-            <v>-0.16986080000000001</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="L43">
-            <v>-120954</v>
-          </cell>
-          <cell r="M43">
-            <v>50355.11</v>
-          </cell>
-          <cell r="N43">
-            <v>-120954</v>
-          </cell>
-          <cell r="O43">
-            <v>50355.11</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="S48" t="str">
-            <v>AFL2433</v>
-          </cell>
-          <cell r="T48" t="str">
-            <v>SDM589</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="U49">
-            <v>-124061.1</v>
-          </cell>
-          <cell r="V49">
-            <v>-29584.49</v>
-          </cell>
-          <cell r="W49">
-            <v>-33675.51</v>
-          </cell>
-          <cell r="X49">
-            <v>163330.29999999999</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="U50">
-            <v>0.2718506</v>
-          </cell>
-          <cell r="V50">
-            <v>-0.16986080000000001</v>
-          </cell>
-          <cell r="W50">
-            <v>0.2718506</v>
-          </cell>
-          <cell r="X50">
-            <v>-0.16986080000000001</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="U51">
-            <v>130518.1</v>
-          </cell>
-          <cell r="V51">
-            <v>-32685.439999999999</v>
-          </cell>
-          <cell r="W51">
-            <v>11438.8</v>
-          </cell>
-          <cell r="X51">
-            <v>-109404.5</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>FIN123</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>AFR01</v>
-          </cell>
-          <cell r="K4" t="str">
-            <v>ANA58</v>
-          </cell>
-          <cell r="L4" t="str">
-            <v>AFL2406</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>-116058.5</v>
-          </cell>
-          <cell r="E5">
-            <v>78981.820000000007</v>
-          </cell>
-          <cell r="F5">
-            <v>-129477.1</v>
-          </cell>
-          <cell r="G5">
-            <v>-62992.480000000003</v>
-          </cell>
-          <cell r="M5">
-            <v>124981</v>
-          </cell>
-          <cell r="N5">
-            <v>74857.69</v>
-          </cell>
-          <cell r="O5">
-            <v>120380.9</v>
-          </cell>
-          <cell r="P5">
-            <v>-1855.4929999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>0.2718506</v>
-          </cell>
-          <cell r="E6">
-            <v>-0.16986080000000001</v>
-          </cell>
-          <cell r="F6">
-            <v>0.2718506</v>
-          </cell>
-          <cell r="G6">
-            <v>-0.16986080000000001</v>
-          </cell>
-          <cell r="M6">
-            <v>77905.02</v>
-          </cell>
-          <cell r="N6">
-            <v>46558.81</v>
-          </cell>
-          <cell r="O6">
-            <v>29787.32</v>
-          </cell>
-          <cell r="P6">
-            <v>17847.72</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>91843.46</v>
-          </cell>
-          <cell r="E7">
-            <v>-77627.820000000007</v>
-          </cell>
-          <cell r="F7">
-            <v>124981</v>
-          </cell>
-          <cell r="G7">
-            <v>74857.69</v>
-          </cell>
-          <cell r="M7">
-            <v>0.2718506</v>
-          </cell>
-          <cell r="N7">
-            <v>-0.16986080000000001</v>
-          </cell>
-          <cell r="O7">
-            <v>-120954</v>
-          </cell>
-          <cell r="P7">
-            <v>50355.11</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="M8">
-            <v>-124061.1</v>
-          </cell>
-          <cell r="N8">
-            <v>-29584.49</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>GZP155</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>SBI86</v>
-          </cell>
-          <cell r="K25" t="str">
-            <v>DNV4863</v>
-          </cell>
-          <cell r="L25" t="str">
-            <v>SDM589</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>147130</v>
-          </cell>
-          <cell r="E26">
-            <v>34833.769999999997</v>
-          </cell>
-          <cell r="F26">
-            <v>147130</v>
-          </cell>
-          <cell r="G26">
-            <v>34833.769999999997</v>
-          </cell>
-          <cell r="M26">
-            <v>11438.8</v>
-          </cell>
-          <cell r="N26">
-            <v>-109404.5</v>
-          </cell>
-          <cell r="O26">
-            <v>-33675.51</v>
-          </cell>
-          <cell r="P26">
-            <v>163330.29999999999</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27">
-            <v>77905.02</v>
-          </cell>
-          <cell r="E27">
-            <v>46558.81</v>
-          </cell>
-          <cell r="F27">
-            <v>-116058.5</v>
-          </cell>
-          <cell r="G27">
-            <v>78981.820000000007</v>
-          </cell>
-          <cell r="M27">
-            <v>0.2718506</v>
-          </cell>
-          <cell r="N27">
-            <v>-0.16986080000000001</v>
-          </cell>
-          <cell r="O27">
-            <v>0.2718506</v>
-          </cell>
-          <cell r="P27">
-            <v>-0.16986080000000001</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28">
-            <v>-116058.5</v>
-          </cell>
-          <cell r="E28">
-            <v>78981.820000000007</v>
-          </cell>
-          <cell r="M28">
-            <v>-33675.51</v>
-          </cell>
-          <cell r="N28">
-            <v>163330.29999999999</v>
-          </cell>
-          <cell r="O28">
-            <v>11438.8</v>
-          </cell>
-          <cell r="P28">
-            <v>-109404.5</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>KLM67</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>THA05</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="D42">
-            <v>91843.46</v>
-          </cell>
-          <cell r="E42">
-            <v>-77627.820000000007</v>
-          </cell>
-          <cell r="F42">
-            <v>91843.46</v>
-          </cell>
-          <cell r="G42">
-            <v>-77627.820000000007</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="D43">
-            <v>53096.34</v>
-          </cell>
-          <cell r="E43">
-            <v>-44851.519999999997</v>
-          </cell>
-          <cell r="F43">
-            <v>53096.34</v>
-          </cell>
-          <cell r="G43">
-            <v>-44851.519999999997</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="D44">
-            <v>0.2718506</v>
-          </cell>
-          <cell r="E44">
-            <v>-0.16986080000000001</v>
-          </cell>
-          <cell r="F44">
-            <v>0.2718506</v>
-          </cell>
-          <cell r="G44">
-            <v>-0.16986080000000001</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="D45">
-            <v>-120954</v>
-          </cell>
-          <cell r="E45">
-            <v>50355.11</v>
-          </cell>
-          <cell r="F45">
-            <v>-120954</v>
-          </cell>
-          <cell r="G45">
-            <v>50355.11</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="K50" t="str">
-            <v>AFL2433</v>
-          </cell>
-          <cell r="L50" t="str">
-            <v>SDM589</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="M51">
-            <v>-124061.1</v>
-          </cell>
-          <cell r="N51">
-            <v>-29584.49</v>
-          </cell>
-          <cell r="O51">
-            <v>-33675.51</v>
-          </cell>
-          <cell r="P51">
-            <v>163330.29999999999</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="M52">
-            <v>0.2718506</v>
-          </cell>
-          <cell r="N52">
-            <v>-0.16986080000000001</v>
-          </cell>
-          <cell r="O52">
-            <v>0.2718506</v>
-          </cell>
-          <cell r="P52">
-            <v>-0.16986080000000001</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="M53">
-            <v>130518.1</v>
-          </cell>
-          <cell r="N53">
-            <v>-32685.439999999999</v>
-          </cell>
-          <cell r="O53">
-            <v>11438.8</v>
-          </cell>
-          <cell r="P53">
-            <v>-109404.5</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -11677,9 +10736,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист24"/>
-  <dimension ref="A2:F34"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11687,465 +10748,1038 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.4228703703703704</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.42335648148148147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D13" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E13" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F7" s="9">
-        <v>0.42418981481481483</v>
+      <c r="F13" s="6">
+        <v>0.42469907407407409</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.42495370370370367</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31" t="s">
         <v>23</v>
       </c>
+      <c r="G14" s="31"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="15" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.42465277777777777</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.43082175925925931</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.43309027777777781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>4</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.42627314814814815</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.43018518518518517</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.43064814814814811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.43385416666666665</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.43490740740740735</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.43516203703703704</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
+        <v>6</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="F31" s="17">
+        <v>0.43612268518518515</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0.43643518518518515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="31"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="D43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="25">
+        <v>1</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0.42245370370370372</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0.42332175925925924</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.42407407407407405</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="31"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="27"/>
+      <c r="B48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="25">
         <v>2</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0.42222222222222222</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.42285879629629625</v>
+      <c r="B49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.41684027777777777</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.42471064814814818</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.42517361111111113</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>29</v>
-      </c>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
+      <c r="B50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="29"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50" s="31"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="12" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="29"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="27"/>
+      <c r="B52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="30"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="25">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0.42644675925925929</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0.4303819444444445</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.43096064814814811</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
+      <c r="B54" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" s="31"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="C55" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="26"/>
+      <c r="B56" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="29"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="27"/>
+      <c r="B57" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>3</v>
-      </c>
-      <c r="B16" s="7" t="s">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="25">
+        <v>4</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C58" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D58" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="9">
-        <v>0.42465277777777777</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0.42881944444444442</v>
+      <c r="E58" s="6">
+        <v>0.42482638888888885</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0.43240740740740741</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.43478009259259259</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="12" t="s">
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="26"/>
+      <c r="B59" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C59" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14" t="s">
+      <c r="D59" s="29"/>
+      <c r="E59" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="F59" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" s="31"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="12" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="26"/>
+      <c r="B60" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C60" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="12" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
+      <c r="B61" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C61" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="12" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="27"/>
+      <c r="B62" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C62" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="19" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="25">
         <v>5</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0.42569444444444443</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0.42974537037037036</v>
+      <c r="B63" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0.43489583333333331</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.43524305555555554</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>23</v>
-      </c>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="26"/>
+      <c r="B64" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="29"/>
+      <c r="E64" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" s="31"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="27"/>
+      <c r="B66" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="30"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="25">
+        <v>6</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="F67" s="17">
+        <v>0.43599537037037034</v>
+      </c>
+      <c r="G67" s="17">
+        <v>0.43634259259259256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
+      <c r="B68" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="29"/>
+      <c r="E68" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G68" s="31"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+      <c r="B69" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="C69" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>5</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0.43486111111111114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="12" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="27"/>
+      <c r="B70" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>6</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0.42986111111111108</v>
-      </c>
-      <c r="F30" s="25">
-        <v>0.43541666666666662</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="17" t="s">
+      <c r="C70" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="27"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
+  <mergeCells count="62">
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="G64:G66"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12324,7 +11958,7 @@
       <c r="K8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="L8" s="4"/>
       <c r="M8">
         <f>VLOOKUP($K8,Beacons!$A$6:$O$30,14,FALSE)</f>
         <v>-124061.1</v>
@@ -12451,7 +12085,7 @@
       <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="24"/>
+      <c r="C28" s="16"/>
       <c r="D28">
         <f>VLOOKUP($B28,Beacons!$A$6:$O$30,14,FALSE)</f>
         <v>-116058.5</v>
@@ -12484,7 +12118,7 @@
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12728,59 +12362,59 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="34"/>
+      <c r="L5" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="29" t="s">
+      <c r="O5" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B6">
@@ -12820,7 +12454,7 @@
       <c r="L6" t="s">
         <v>66</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="22" t="s">
         <v>67</v>
       </c>
       <c r="N6">
@@ -12833,7 +12467,7 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B7">
@@ -12886,7 +12520,7 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B8">
@@ -12939,7 +12573,7 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B9">
@@ -13000,7 +12634,7 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B10">
@@ -13057,7 +12691,7 @@
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="23" t="s">
         <v>78</v>
       </c>
       <c r="B11">
@@ -13110,7 +12744,7 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="23" t="s">
         <v>81</v>
       </c>
       <c r="B12">
@@ -13163,7 +12797,7 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B13">
@@ -13220,7 +12854,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B14">
@@ -13277,7 +12911,7 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B15">
@@ -13314,10 +12948,10 @@
         <f t="shared" si="2"/>
         <v>30.86138</v>
       </c>
-      <c r="L15" s="32" t="s">
+      <c r="L15" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="22" t="s">
         <v>89</v>
       </c>
       <c r="N15">
@@ -13334,7 +12968,7 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B16">
@@ -13395,7 +13029,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B17">
@@ -13452,7 +13086,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B18">
@@ -13509,7 +13143,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B19">
@@ -13566,7 +13200,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B20">
@@ -13623,7 +13257,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="21" t="s">
         <v>99</v>
       </c>
       <c r="B21">
@@ -13680,7 +13314,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B22">
@@ -13737,7 +13371,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="23" t="s">
         <v>103</v>
       </c>
       <c r="B23">
@@ -13790,7 +13424,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B24">
@@ -13847,7 +13481,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B25">
@@ -13900,7 +13534,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B26">
@@ -13957,7 +13591,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B27">
@@ -14173,7 +13807,7 @@
       </c>
     </row>
     <row r="33" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H33" s="29" t="s">
+      <c r="H33" s="20" t="s">
         <v>123</v>
       </c>
     </row>

--- a/Тест/OKO_Test_Timeline.xlsx
+++ b/Тест/OKO_Test_Timeline.xlsx
@@ -673,6 +673,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -690,12 +696,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10738,9 +10738,7 @@
   <sheetPr codeName="Лист24"/>
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10789,10 +10787,10 @@
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="32"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
@@ -10807,8 +10805,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
-        <v>2</v>
+      <c r="A8" s="27">
+        <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>24</v>
@@ -10816,7 +10814,7 @@
       <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="30" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="6">
@@ -10830,60 +10828,60 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="31" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
-        <v>1</v>
+      <c r="A13" s="27">
+        <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
@@ -10891,7 +10889,7 @@
       <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="6">
@@ -10905,48 +10903,48 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="A17" s="27">
         <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -10955,7 +10953,7 @@
       <c r="C17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="6">
@@ -10969,63 +10967,63 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="31" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="31"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="27">
         <v>4</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -11034,7 +11032,7 @@
       <c r="C22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="6">
@@ -11048,61 +11046,61 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="31" t="s">
+      <c r="D23" s="31"/>
+      <c r="E23" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="31"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="15"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="A27" s="27">
         <v>5</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -11111,7 +11109,7 @@
       <c r="C27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="30" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="6">
@@ -11125,50 +11123,50 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="31" t="s">
+      <c r="D28" s="31"/>
+      <c r="E28" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="31"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+      <c r="A31" s="27">
         <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -11177,7 +11175,7 @@
       <c r="C31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="6">
@@ -11191,47 +11189,47 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="31" t="s">
+      <c r="D32" s="31"/>
+      <c r="E32" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="31"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
@@ -11272,10 +11270,10 @@
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="32"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="3" t="s">
         <v>19</v>
       </c>
@@ -11290,7 +11288,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="25">
+      <c r="A44" s="27">
         <v>1</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -11299,7 +11297,7 @@
       <c r="C44" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="30" t="s">
         <v>26</v>
       </c>
       <c r="E44" s="6">
@@ -11313,59 +11311,59 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="31" t="s">
+      <c r="D45" s="31"/>
+      <c r="E45" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="31" t="s">
+      <c r="F45" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="G45" s="31"/>
+      <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="13"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="25">
+      <c r="A49" s="27">
         <v>2</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -11374,7 +11372,7 @@
       <c r="C49" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E49" s="6">
@@ -11388,204 +11386,204 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31" t="s">
+      <c r="D50" s="31"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="G50" s="31"/>
+      <c r="G50" s="25"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="25">
+      <c r="A53" s="27">
         <v>3</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="E53" s="6">
-        <v>0.42644675925925929</v>
+        <v>0.42482638888888885</v>
       </c>
       <c r="F53" s="6">
-        <v>0.4303819444444445</v>
+        <v>0.43240740740740741</v>
       </c>
       <c r="G53" s="6">
-        <v>0.43096064814814811</v>
+        <v>0.43478009259259259</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F54" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="31"/>
+      <c r="E54" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="G54" s="31"/>
+      <c r="G54" s="25"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="8" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
+        <v>35</v>
+      </c>
+      <c r="D55" s="31"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
+        <v>12</v>
+      </c>
+      <c r="D56" s="31"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
+        <v>16</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="32"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="25">
+      <c r="A58" s="27">
         <v>4</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="E58" s="6">
-        <v>0.42482638888888885</v>
+        <v>0.42644675925925929</v>
       </c>
       <c r="F58" s="6">
-        <v>0.43240740740740741</v>
+        <v>0.4303819444444445</v>
       </c>
       <c r="G58" s="6">
-        <v>0.43478009259259259</v>
+        <v>0.43096064814814811</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="29"/>
-      <c r="E59" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="31"/>
+      <c r="E59" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="G59" s="31"/>
+      <c r="G59" s="25"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="8" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
+        <v>14</v>
+      </c>
+      <c r="D60" s="31"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
+        <v>16</v>
+      </c>
+      <c r="D61" s="31"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="30"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
+        <v>21</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="25">
+      <c r="A63" s="27">
         <v>5</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -11594,7 +11592,7 @@
       <c r="C63" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="28" t="s">
+      <c r="D63" s="30" t="s">
         <v>42</v>
       </c>
       <c r="E63" s="6">
@@ -11608,50 +11606,50 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="31" t="s">
+      <c r="D64" s="31"/>
+      <c r="E64" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F64" s="31" t="s">
+      <c r="F64" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="G64" s="31"/>
+      <c r="G64" s="25"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="25">
+      <c r="A67" s="27">
         <v>6</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -11660,7 +11658,7 @@
       <c r="C67" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E67" s="6">
@@ -11674,81 +11672,70 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="29"/>
-      <c r="E68" s="31" t="s">
+      <c r="D68" s="31"/>
+      <c r="E68" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F68" s="31" t="s">
+      <c r="F68" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="G68" s="31"/>
+      <c r="G68" s="25"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
+      <c r="A69" s="28"/>
       <c r="B69" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="29"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D70" s="30"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G54:G57"/>
     <mergeCell ref="G32:G34"/>
     <mergeCell ref="A49:A52"/>
     <mergeCell ref="D49:D52"/>
@@ -11760,26 +11747,37 @@
     <mergeCell ref="E45:E48"/>
     <mergeCell ref="F45:F48"/>
     <mergeCell ref="G45:G48"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Тест/OKO_Test_Timeline.xlsx
+++ b/Тест/OKO_Test_Timeline.xlsx
@@ -673,12 +673,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -696,6 +690,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -760,6 +760,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -890,6 +891,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -991,7 +993,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-B99E-47FE-8421-C3530D505C3D}"/>
                 </c:ext>
@@ -1333,6 +1337,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1468,7 +1473,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-25CA-45D2-96DA-DC2E80316B15}"/>
                 </c:ext>
@@ -1649,7 +1656,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-25CA-45D2-96DA-DC2E80316B15}"/>
                 </c:ext>
@@ -1954,6 +1963,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2043,7 +2053,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-C346-4010-9F05-A467015AD497}"/>
                 </c:ext>
@@ -2247,7 +2259,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-C346-4010-9F05-A467015AD497}"/>
                 </c:ext>
@@ -2594,6 +2608,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2733,6 +2748,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2860,7 +2876,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-333B-4BCA-AA5A-C6B976BFC777}"/>
                 </c:ext>
@@ -3168,6 +3186,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3452,7 +3471,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-FD2A-4455-8A11-E8F7D22B39CC}"/>
                 </c:ext>
@@ -3780,6 +3801,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3869,7 +3891,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-A2B0-464F-886E-002EA56C09AC}"/>
                 </c:ext>
@@ -4031,7 +4055,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-A2B0-464F-886E-002EA56C09AC}"/>
                 </c:ext>
@@ -10738,7 +10764,9 @@
   <sheetPr codeName="Лист24"/>
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10787,10 +10815,10 @@
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
@@ -10805,7 +10833,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
+      <c r="A8" s="25">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -10814,7 +10842,7 @@
       <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="6">
@@ -10828,59 +10856,59 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="A13" s="25">
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -10889,7 +10917,7 @@
       <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="28" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="6">
@@ -10903,48 +10931,48 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
+      <c r="A17" s="25">
         <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -10953,7 +10981,7 @@
       <c r="C17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="6">
@@ -10967,63 +10995,63 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="25"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="25">
         <v>4</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -11032,7 +11060,7 @@
       <c r="C22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="6">
@@ -11046,61 +11074,61 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="29"/>
+      <c r="E23" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="25"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="15"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
+      <c r="A27" s="25">
         <v>5</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -11109,7 +11137,7 @@
       <c r="C27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="28" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="6">
@@ -11123,50 +11151,50 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="25" t="s">
+      <c r="D28" s="29"/>
+      <c r="E28" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="25"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
+      <c r="A31" s="25">
         <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -11175,7 +11203,7 @@
       <c r="C31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="28" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="6">
@@ -11189,47 +11217,47 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="25" t="s">
+      <c r="D32" s="29"/>
+      <c r="E32" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="25"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
@@ -11270,10 +11298,10 @@
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="26"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="3" t="s">
         <v>19</v>
       </c>
@@ -11288,7 +11316,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="27">
+      <c r="A44" s="25">
         <v>1</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -11297,7 +11325,7 @@
       <c r="C44" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E44" s="6">
@@ -11311,59 +11339,59 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="25" t="s">
+      <c r="D45" s="29"/>
+      <c r="E45" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="G45" s="25"/>
+      <c r="G45" s="31"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="13"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
+      <c r="A48" s="27"/>
       <c r="B48" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="27">
+      <c r="A49" s="25">
         <v>2</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -11372,7 +11400,7 @@
       <c r="C49" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="28" t="s">
         <v>22</v>
       </c>
       <c r="E49" s="6">
@@ -11386,48 +11414,48 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25" t="s">
+      <c r="D50" s="29"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="G50" s="25"/>
+      <c r="G50" s="31"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="27">
+      <c r="A53" s="25">
         <v>3</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -11436,7 +11464,7 @@
       <c r="C53" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E53" s="6">
@@ -11450,63 +11478,63 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="25" t="s">
+      <c r="D54" s="29"/>
+      <c r="E54" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="G54" s="25"/>
+      <c r="G54" s="31"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
+      <c r="A56" s="26"/>
       <c r="B56" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
+      <c r="A57" s="27"/>
       <c r="B57" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="27">
+      <c r="A58" s="25">
         <v>4</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -11515,7 +11543,7 @@
       <c r="C58" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E58" s="6">
@@ -11529,61 +11557,61 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="25" t="s">
+      <c r="D59" s="29"/>
+      <c r="E59" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F59" s="25" t="s">
+      <c r="F59" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="G59" s="25"/>
+      <c r="G59" s="31"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C62" s="15"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="27">
+      <c r="A63" s="25">
         <v>5</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -11592,7 +11620,7 @@
       <c r="C63" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="28" t="s">
         <v>42</v>
       </c>
       <c r="E63" s="6">
@@ -11606,50 +11634,50 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="31"/>
-      <c r="E64" s="25" t="s">
+      <c r="D64" s="29"/>
+      <c r="E64" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F64" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="G64" s="25"/>
+      <c r="G64" s="31"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
+      <c r="A66" s="27"/>
       <c r="B66" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="32"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="27">
+      <c r="A67" s="25">
         <v>6</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -11658,7 +11686,7 @@
       <c r="C67" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D67" s="28" t="s">
         <v>22</v>
       </c>
       <c r="E67" s="6">
@@ -11672,70 +11700,80 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="31"/>
-      <c r="E68" s="25" t="s">
+      <c r="D68" s="29"/>
+      <c r="E68" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F68" s="25" t="s">
+      <c r="F68" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="G68" s="25"/>
+      <c r="G68" s="31"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
+      <c r="A69" s="26"/>
       <c r="B69" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
+      <c r="A70" s="27"/>
       <c r="B70" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D70" s="32"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
     <mergeCell ref="G32:G34"/>
     <mergeCell ref="A49:A52"/>
     <mergeCell ref="D49:D52"/>
@@ -11748,36 +11786,26 @@
     <mergeCell ref="F45:F48"/>
     <mergeCell ref="G45:G48"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="G64:G66"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11789,7 +11817,7 @@
   <sheetPr codeName="Лист27"/>
   <dimension ref="B2:P53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
